--- a/dataset/excel data/322-118.xlsx
+++ b/dataset/excel data/322-118.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\실험데이터\★★버블맵프로그램및도면이미지\도면이미지\★논문유형 10\18-279-1\1. orignal image\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\버블맵프로그램및도면이미지\도면이미지\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5673FD84-35E3-4570-8978-7933741F5712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C93B33B0-3711-441E-B894-3C0ADD548FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34680" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="375" windowWidth="26340" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="322-118" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="98">
   <si>
     <t>인접공간ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,7 +262,7 @@
     <t>DIN</t>
   </si>
   <si>
-    <t>0.8389</t>
+    <t>0.9444</t>
   </si>
   <si>
     <t/>
@@ -271,7 +271,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.0359</t>
+    <t>0.04</t>
   </si>
   <si>
     <t>1711</t>
@@ -283,109 +283,115 @@
     <t>LIV</t>
   </si>
   <si>
+    <t>0.9003</t>
+  </si>
+  <si>
+    <t>0.2767</t>
+  </si>
+  <si>
+    <t>FOY</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>GAR</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>0.5789</t>
+  </si>
+  <si>
+    <t>0.0068</t>
+  </si>
+  <si>
+    <t>CLO</t>
+  </si>
+  <si>
     <t>BAT</t>
   </si>
   <si>
-    <t>0.8896</t>
-  </si>
-  <si>
-    <t>0.0456</t>
+    <t>0.3689</t>
+  </si>
+  <si>
+    <t>0.0142</t>
   </si>
   <si>
     <t>BED</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.0366</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
     <t>DRE</t>
   </si>
   <si>
-    <t>0.736</t>
-  </si>
-  <si>
-    <t>0.0222</t>
-  </si>
-  <si>
-    <t>KIT</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.0299</t>
-  </si>
-  <si>
-    <t>0.0757</t>
-  </si>
-  <si>
-    <t>0.9583</t>
-  </si>
-  <si>
-    <t>0.0383</t>
-  </si>
-  <si>
-    <t>CLO</t>
-  </si>
-  <si>
-    <t>0.8534</t>
-  </si>
-  <si>
-    <t>0.2943</t>
-  </si>
-  <si>
-    <t>FOY</t>
-  </si>
-  <si>
-    <t>GAR</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>0.3018</t>
-  </si>
-  <si>
-    <t>0.0166</t>
-  </si>
-  <si>
-    <t>0.0039</t>
-  </si>
-  <si>
-    <t>0.5783</t>
+    <t>0.7711</t>
+  </si>
+  <si>
+    <t>0.0193</t>
+  </si>
+  <si>
+    <t>0.0679</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.0345</t>
+  </si>
+  <si>
+    <t>0.1323</t>
+  </si>
+  <si>
+    <t>0.3614</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.6133</t>
+  </si>
+  <si>
+    <t>0.0125</t>
+  </si>
+  <si>
+    <t>0.7679</t>
+  </si>
+  <si>
+    <t>0.035</t>
   </si>
   <si>
     <t>0.0077</t>
   </si>
   <si>
-    <t>0.1425</t>
-  </si>
-  <si>
-    <t>0.0115</t>
-  </si>
-  <si>
-    <t>0.0022</t>
-  </si>
-  <si>
-    <t>0.6481</t>
-  </si>
-  <si>
-    <t>0.0146</t>
-  </si>
-  <si>
-    <t>0.0414</t>
-  </si>
-  <si>
-    <t>0.0083</t>
-  </si>
-  <si>
-    <t>0.3235</t>
+    <t>0.0277</t>
+  </si>
+  <si>
+    <t>0.0064</t>
+  </si>
+  <si>
+    <t>0.0028</t>
+  </si>
+  <si>
+    <t>0.32</t>
   </si>
   <si>
     <t>0.0065</t>
   </si>
   <si>
-    <t>0.0071</t>
+    <t>0.0072</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,13 +550,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -565,13 +571,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -580,37 +586,40 @@
     <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,30 +949,30 @@
       <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="15" t="s">
         <v>44</v>
       </c>
@@ -992,14 +1001,14 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="20" t="s">
         <v>22</v>
       </c>
@@ -1070,10 +1079,10 @@
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1252,10 +1261,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.21909999999999999</v>
+        <v>0.20810000000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>0.1638</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1344,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.21909999999999999</v>
+        <v>0.20810000000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>0.1638</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1436,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.21909999999999999</v>
+        <v>0.20810000000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>0.1638</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1519,25 +1528,25 @@
         <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.49340000000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.2397</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>55</v>
@@ -1549,7 +1558,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>58</v>
@@ -1558,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1582,22 +1591,22 @@
         <v>1</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
         <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -1611,25 +1620,25 @@
         <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.18379999999999999</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>0.1206</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>55</v>
@@ -1641,7 +1650,7 @@
         <v>56</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>58</v>
@@ -1650,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1668,28 +1677,28 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AB9" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC9" s="1">
         <v>1</v>
       </c>
       <c r="AD9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
@@ -1703,25 +1712,25 @@
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0.1426</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>0.2097</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.60619999999999996</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>55</v>
@@ -1733,7 +1742,7 @@
         <v>56</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>58</v>
@@ -1742,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -1760,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD10" s="1">
         <v>0</v>
@@ -1795,25 +1804,25 @@
         <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0.23380000000000001</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>0.32369999999999999</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.64370000000000005</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>55</v>
@@ -1825,7 +1834,7 @@
         <v>56</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>58</v>
@@ -1834,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -1858,22 +1867,22 @@
         <v>1</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AB11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC11" s="1">
         <v>1</v>
       </c>
       <c r="AD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
@@ -1887,25 +1896,25 @@
         <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.23380000000000001</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>0.32369999999999999</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.64370000000000005</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>55</v>
@@ -1917,7 +1926,7 @@
         <v>56</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>58</v>
@@ -1926,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12" s="1">
         <v>0</v>
@@ -1953,7 +1962,7 @@
         <v>65</v>
       </c>
       <c r="AB12" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AC12" s="1">
         <v>1</v>
@@ -1965,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
@@ -1979,25 +1988,25 @@
         <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0.23380000000000001</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>0.32369999999999999</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.64370000000000005</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>55</v>
@@ -2009,7 +2018,7 @@
         <v>56</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>58</v>
@@ -2018,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -2042,10 +2051,10 @@
         <v>1</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AB13" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC13" s="1">
         <v>1</v>
@@ -2071,25 +2080,25 @@
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0.21179999999999999</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>0.18090000000000001</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="J14" s="1">
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>55</v>
@@ -2101,7 +2110,7 @@
         <v>56</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>58</v>
@@ -2110,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2128,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="AB14" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AC14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="1">
         <v>1</v>
@@ -2163,25 +2172,25 @@
         <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.21179999999999999</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>0.18090000000000001</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>55</v>
@@ -2193,7 +2202,7 @@
         <v>56</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>58</v>
@@ -2202,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2220,19 +2229,19 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB15" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AC15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1">
         <v>1</v>
@@ -2241,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
@@ -2264,16 +2273,16 @@
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0.62209999999999999</v>
+        <v>0.56069999999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>0.47310000000000002</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>55</v>
@@ -2285,7 +2294,7 @@
         <v>56</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>58</v>
@@ -2318,22 +2327,22 @@
         <v>1</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB16" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC16" s="1">
         <v>1</v>
       </c>
       <c r="AD16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
@@ -2347,25 +2356,25 @@
         <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0.62209999999999999</v>
+        <v>0.10979999999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>0.47310000000000002</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>55</v>
@@ -2377,7 +2386,7 @@
         <v>56</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>58</v>
@@ -2386,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -2404,16 +2413,16 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB17" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="1">
         <v>1</v>
@@ -2439,25 +2448,25 @@
         <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0.62209999999999999</v>
+        <v>0.10979999999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>0.47310000000000002</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>55</v>
@@ -2469,7 +2478,7 @@
         <v>56</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>58</v>
@@ -2478,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -2496,28 +2505,28 @@
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC18" s="1">
         <v>1</v>
       </c>
       <c r="AD18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
@@ -2531,25 +2540,25 @@
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>0.62209999999999999</v>
+        <v>0.10979999999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>0.47310000000000002</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>55</v>
@@ -2561,7 +2570,7 @@
         <v>56</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>58</v>
@@ -2570,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -2588,28 +2597,28 @@
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="AB19" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
@@ -2623,25 +2632,25 @@
         <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>0.62209999999999999</v>
+        <v>0.19850000000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>0.47310000000000002</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="J20" s="1">
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>55</v>
@@ -2653,7 +2662,7 @@
         <v>56</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>58</v>
@@ -2662,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
@@ -2680,28 +2689,28 @@
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AB20" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="1">
         <v>1</v>
       </c>
       <c r="AD20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.3">
@@ -2715,25 +2724,25 @@
         <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>0.62209999999999999</v>
+        <v>0.19850000000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>0.47310000000000002</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>55</v>
@@ -2745,7 +2754,7 @@
         <v>56</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>58</v>
@@ -2754,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -2772,16 +2781,16 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="AB21" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AC21" s="1">
         <v>1</v>
@@ -2807,25 +2816,25 @@
         <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>0.62209999999999999</v>
+        <v>0.19850000000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>0.47310000000000002</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>55</v>
@@ -2837,7 +2846,7 @@
         <v>56</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>58</v>
@@ -2846,37 +2855,37 @@
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB22" s="1">
         <v>2</v>
       </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>20</v>
-      </c>
       <c r="AC22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD22" s="1">
         <v>1</v>
@@ -2899,22 +2908,22 @@
         <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>0.62209999999999999</v>
+        <v>0.1908</v>
       </c>
       <c r="I23" s="1">
-        <v>0.47310000000000002</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>75</v>
@@ -2938,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
@@ -2956,19 +2965,19 @@
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="AB23" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AC23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD23" s="1">
         <v>1</v>
@@ -2977,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.3">
@@ -2991,22 +3000,22 @@
         <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>0.62209999999999999</v>
+        <v>0.1908</v>
       </c>
       <c r="I24" s="1">
-        <v>0.47310000000000002</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>75</v>
@@ -3030,38 +3039,38 @@
         <v>0</v>
       </c>
       <c r="R24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC24" s="1">
         <v>2</v>
       </c>
-      <c r="T24" s="1">
-        <v>0</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>7</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>1</v>
-      </c>
       <c r="AD24" s="1">
         <v>1</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.3">
@@ -3083,25 +3092,25 @@
         <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F25" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0.2485</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="I25" s="1">
-        <v>6.6799999999999998E-2</v>
+        <v>0.1055</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>55</v>
@@ -3113,7 +3122,7 @@
         <v>56</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>58</v>
@@ -3146,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AB25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="1">
         <v>1</v>
       </c>
       <c r="AD25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.3">
@@ -3175,25 +3184,25 @@
         <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0.2485</v>
+        <v>0.15989999999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>6.6799999999999998E-2</v>
+        <v>0.1205</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>55</v>
@@ -3205,7 +3214,7 @@
         <v>56</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>58</v>
@@ -3238,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="AB26" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AC26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD26" s="1">
         <v>1</v>
@@ -3267,25 +3276,25 @@
         <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F27" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="1">
-        <v>0.2485</v>
+        <v>0.21579999999999999</v>
       </c>
       <c r="I27" s="1">
-        <v>6.6799999999999998E-2</v>
+        <v>0.3145</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0.67069999999999996</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>55</v>
@@ -3297,7 +3306,7 @@
         <v>56</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>58</v>
@@ -3324,16 +3333,16 @@
         <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="AB27" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC27" s="1">
         <v>1</v>
@@ -3362,22 +3371,22 @@
         <v>74</v>
       </c>
       <c r="F28" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1">
-        <v>0.05</v>
+        <v>0.21579999999999999</v>
       </c>
       <c r="I28" s="1">
-        <v>7.7299999999999994E-2</v>
+        <v>0.3145</v>
       </c>
       <c r="J28" s="1">
-        <v>0.57630000000000003</v>
+        <v>0.67069999999999996</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>55</v>
@@ -3389,7 +3398,7 @@
         <v>56</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>58</v>
@@ -3416,19 +3425,19 @@
         <v>0</v>
       </c>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD28" s="1">
         <v>1</v>
@@ -3451,25 +3460,25 @@
         <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1">
-        <v>0.1221</v>
+        <v>0.21579999999999999</v>
       </c>
       <c r="I29" s="1">
-        <v>6.2899999999999998E-2</v>
+        <v>0.3145</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0.67069999999999996</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>55</v>
@@ -3481,7 +3490,7 @@
         <v>56</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>58</v>
@@ -3508,28 +3517,28 @@
         <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB29" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC29" s="1">
         <v>1</v>
       </c>
       <c r="AD29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.3">
@@ -3543,25 +3552,25 @@
         <v>52</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1">
-        <v>0.1221</v>
+        <v>0.19270000000000001</v>
       </c>
       <c r="I30" s="1">
-        <v>6.2899999999999998E-2</v>
+        <v>0.1789</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>55</v>
@@ -3573,7 +3582,7 @@
         <v>56</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>58</v>
@@ -3606,13 +3615,13 @@
         <v>0</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AB30" s="1">
         <v>11</v>
       </c>
       <c r="AC30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD30" s="1">
         <v>1</v>
@@ -3635,25 +3644,25 @@
         <v>52</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" s="1">
-        <v>0.1221</v>
+        <v>0.19270000000000001</v>
       </c>
       <c r="I31" s="1">
-        <v>6.2899999999999998E-2</v>
+        <v>0.1789</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>55</v>
@@ -3665,7 +3674,7 @@
         <v>56</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>58</v>
@@ -3698,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AC31" s="1">
         <v>2</v>
@@ -3727,7 +3736,7 @@
         <v>52</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F32" s="1">
         <v>19</v>
@@ -3736,16 +3745,16 @@
         <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>0.39119999999999999</v>
+        <v>0.3584</v>
       </c>
       <c r="I32" s="1">
-        <v>0.3644</v>
+        <v>0.36909999999999998</v>
       </c>
       <c r="J32" s="1">
-        <v>0.95679999999999998</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>55</v>
@@ -3757,7 +3766,7 @@
         <v>56</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>58</v>
@@ -3819,25 +3828,25 @@
         <v>52</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F33" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>0.10589999999999999</v>
+        <v>0.15989999999999999</v>
       </c>
       <c r="I33" s="1">
-        <v>0.10879999999999999</v>
+        <v>5.6500000000000002E-2</v>
       </c>
       <c r="J33" s="1">
-        <v>0.86750000000000005</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>55</v>
@@ -3849,7 +3858,7 @@
         <v>56</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>58</v>
@@ -3882,10 +3891,10 @@
         <v>0</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="1">
         <v>1</v>
@@ -3897,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="AF33" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.3">
@@ -3911,25 +3920,25 @@
         <v>52</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>3.5299999999999998E-2</v>
+        <v>0.14449999999999999</v>
       </c>
       <c r="I34" s="1">
-        <v>6.2899999999999998E-2</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="J34" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>55</v>
@@ -3973,23 +3982,23 @@
       <c r="Y34" s="1">
         <v>0</v>
       </c>
-      <c r="AA34" s="1">
-        <v>0</v>
+      <c r="AA34" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.3">
@@ -4003,7 +4012,7 @@
         <v>52</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1">
         <v>4</v>
@@ -4012,10 +4021,10 @@
         <v>3</v>
       </c>
       <c r="H35" s="1">
-        <v>0.1588</v>
+        <v>0.21579999999999999</v>
       </c>
       <c r="I35" s="1">
-        <v>9.1700000000000004E-2</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -4066,10 +4075,10 @@
         <v>0</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="AB35" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC35" s="1">
         <v>2</v>
@@ -4095,25 +4104,25 @@
         <v>52</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F36" s="1">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1">
         <v>2</v>
       </c>
-      <c r="G36" s="1">
-        <v>3</v>
-      </c>
       <c r="H36" s="1">
-        <v>0.2147</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>0.19270000000000001</v>
+        <v>0.1205</v>
       </c>
       <c r="J36" s="1">
-        <v>0.99319999999999997</v>
+        <v>0.51559999999999995</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>55</v>
@@ -4152,28 +4161,28 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="AB36" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.3">
@@ -4187,25 +4196,25 @@
         <v>52</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F37" s="1">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1">
         <v>2</v>
       </c>
-      <c r="G37" s="1">
-        <v>3</v>
-      </c>
       <c r="H37" s="1">
-        <v>0.2147</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="I37" s="1">
-        <v>0.19270000000000001</v>
+        <v>0.1205</v>
       </c>
       <c r="J37" s="1">
-        <v>0.99319999999999997</v>
+        <v>0.51559999999999995</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>55</v>
@@ -4244,19 +4253,19 @@
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="AB37" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="1">
         <v>1</v>
@@ -4288,16 +4297,16 @@
         <v>2</v>
       </c>
       <c r="H38" s="1">
-        <v>6.7599999999999993E-2</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="I38" s="1">
-        <v>0.1232</v>
+        <v>0.1205</v>
       </c>
       <c r="J38" s="1">
-        <v>0.4894</v>
+        <v>0.51559999999999995</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>55</v>
@@ -4309,7 +4318,7 @@
         <v>56</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>58</v>
@@ -4342,22 +4351,22 @@
         <v>0</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="AB38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF38" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.3">
@@ -4380,16 +4389,16 @@
         <v>2</v>
       </c>
       <c r="H39" s="1">
-        <v>6.7599999999999993E-2</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="I39" s="1">
-        <v>0.1232</v>
+        <v>0.1205</v>
       </c>
       <c r="J39" s="1">
-        <v>0.4894</v>
+        <v>0.51559999999999995</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>55</v>
@@ -4401,7 +4410,7 @@
         <v>56</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>58</v>
@@ -4434,10 +4443,10 @@
         <v>0</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AB39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC39" s="1">
         <v>2</v>
@@ -4463,25 +4472,25 @@
         <v>52</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F40" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="1">
-        <v>6.7599999999999993E-2</v>
+        <v>0.13489999999999999</v>
       </c>
       <c r="I40" s="1">
-        <v>0.1232</v>
+        <v>0.20530000000000001</v>
       </c>
       <c r="J40" s="1">
-        <v>0.4894</v>
+        <v>0.64219999999999999</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>55</v>
@@ -4526,22 +4535,22 @@
         <v>0</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.3">
@@ -4555,25 +4564,25 @@
         <v>52</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F41" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="1">
-        <v>6.7599999999999993E-2</v>
+        <v>5.7799999999999997E-2</v>
       </c>
       <c r="I41" s="1">
-        <v>0.1232</v>
+        <v>0.1111</v>
       </c>
       <c r="J41" s="1">
-        <v>0.4894</v>
+        <v>0.50849999999999995</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>55</v>
@@ -4585,7 +4594,7 @@
         <v>56</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>58</v>
@@ -4618,13 +4627,13 @@
         <v>0</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AB41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC41" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="1">
         <v>1</v>
@@ -4647,25 +4656,25 @@
         <v>52</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F42" s="1">
         <v>11</v>
       </c>
       <c r="G42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1">
-        <v>4.7100000000000003E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="I42" s="1">
-        <v>0.17560000000000001</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="J42" s="1">
-        <v>0.23880000000000001</v>
+        <v>0.52629999999999999</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>55</v>
@@ -4677,7 +4686,7 @@
         <v>56</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>58</v>
@@ -4710,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="1">
         <v>1</v>
@@ -4739,25 +4748,25 @@
         <v>52</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F43" s="1">
         <v>11</v>
       </c>
       <c r="G43" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" s="1">
-        <v>0.15</v>
+        <v>0.14449999999999999</v>
       </c>
       <c r="I43" s="1">
-        <v>4.3299999999999998E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="J43" s="1">
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>55</v>
@@ -4769,7 +4778,7 @@
         <v>56</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>58</v>
@@ -4802,13 +4811,13 @@
         <v>0</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AB43" s="1">
         <v>2</v>
       </c>
       <c r="AC43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD43" s="1">
         <v>1</v>
@@ -4831,25 +4840,25 @@
         <v>52</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F44" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" s="1">
-        <v>6.4699999999999994E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="I44" s="1">
-        <v>0.1101</v>
+        <v>0.15629999999999999</v>
       </c>
       <c r="J44" s="1">
-        <v>0.52380000000000004</v>
+        <v>0.28920000000000001</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>55</v>
@@ -4861,7 +4870,7 @@
         <v>56</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>58</v>
@@ -4894,10 +4903,10 @@
         <v>0</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="AB44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC44" s="1">
         <v>1</v>
